--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_swish.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>186.2771301269531</v>
+        <v>188.7752990722656</v>
       </c>
       <c r="H2" t="n">
-        <v>43.18291091918945</v>
+        <v>40.0867805480957</v>
       </c>
       <c r="I2" t="n">
-        <v>870.435546875</v>
+        <v>892.0969848632812</v>
       </c>
       <c r="J2" t="n">
-        <v>80.9754638671875</v>
+        <v>64.82280731201172</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>229.1428833007812</v>
+        <v>245.1864013671875</v>
       </c>
       <c r="H3" t="n">
-        <v>57.20442199707031</v>
+        <v>47.04282760620117</v>
       </c>
       <c r="I3" t="n">
-        <v>878.3364868164062</v>
+        <v>897.9754028320312</v>
       </c>
       <c r="J3" t="n">
-        <v>77.51302337646484</v>
+        <v>70.74146270751953</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>282.3939514160156</v>
+        <v>302.9942626953125</v>
       </c>
       <c r="H4" t="n">
-        <v>105.4268035888672</v>
+        <v>81.36804962158203</v>
       </c>
       <c r="I4" t="n">
-        <v>882.5946044921875</v>
+        <v>900.3538818359375</v>
       </c>
       <c r="J4" t="n">
-        <v>85.28665161132812</v>
+        <v>70.40226745605469</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>360.9850769042969</v>
+        <v>376.3637390136719</v>
       </c>
       <c r="H5" t="n">
-        <v>157.7102813720703</v>
+        <v>125.6365356445312</v>
       </c>
       <c r="I5" t="n">
-        <v>876.5894775390625</v>
+        <v>898.4390869140625</v>
       </c>
       <c r="J5" t="n">
-        <v>94.18710327148438</v>
+        <v>80.30810546875</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>471.2900085449219</v>
+        <v>468.0430297851562</v>
       </c>
       <c r="H6" t="n">
-        <v>183.9542388916016</v>
+        <v>163.183837890625</v>
       </c>
       <c r="I6" t="n">
-        <v>876.6455078125</v>
+        <v>890.9068603515625</v>
       </c>
       <c r="J6" t="n">
-        <v>97.02034759521484</v>
+        <v>85.57048797607422</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>140.043701171875</v>
+        <v>134.9084320068359</v>
       </c>
       <c r="H7" t="n">
-        <v>43.7491340637207</v>
+        <v>39.60590744018555</v>
       </c>
       <c r="I7" t="n">
-        <v>939.8794555664062</v>
+        <v>938.9768676757812</v>
       </c>
       <c r="J7" t="n">
-        <v>83.26058959960938</v>
+        <v>78.39363098144531</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>147.1810302734375</v>
+        <v>144.7809906005859</v>
       </c>
       <c r="H8" t="n">
-        <v>42.14792251586914</v>
+        <v>39.60500717163086</v>
       </c>
       <c r="I8" t="n">
-        <v>938.8738403320312</v>
+        <v>928.8412475585938</v>
       </c>
       <c r="J8" t="n">
-        <v>80.99857330322266</v>
+        <v>73.59018707275391</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>177.4406585693359</v>
+        <v>179.8141326904297</v>
       </c>
       <c r="H9" t="n">
-        <v>39.6659049987793</v>
+        <v>39.75818634033203</v>
       </c>
       <c r="I9" t="n">
-        <v>933.6375122070312</v>
+        <v>912.7847900390625</v>
       </c>
       <c r="J9" t="n">
-        <v>79.86888885498047</v>
+        <v>68.51833343505859</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>209.3415832519531</v>
+        <v>223.5207824707031</v>
       </c>
       <c r="H10" t="n">
-        <v>45.23420715332031</v>
+        <v>46.75072479248047</v>
       </c>
       <c r="I10" t="n">
-        <v>923.1058349609375</v>
+        <v>900.4186401367188</v>
       </c>
       <c r="J10" t="n">
-        <v>83.30493927001953</v>
+        <v>67.61904144287109</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>268.8145751953125</v>
+        <v>288.3273620605469</v>
       </c>
       <c r="H11" t="n">
-        <v>81.326416015625</v>
+        <v>68.09945678710938</v>
       </c>
       <c r="I11" t="n">
-        <v>905.7626342773438</v>
+        <v>897.1289672851562</v>
       </c>
       <c r="J11" t="n">
-        <v>90.60028839111328</v>
+        <v>68.76273345947266</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>388.2215881347656</v>
+        <v>414.3007202148438</v>
       </c>
       <c r="H12" t="n">
-        <v>155.5777587890625</v>
+        <v>134.8302917480469</v>
       </c>
       <c r="I12" t="n">
-        <v>893.9149780273438</v>
+        <v>895.230224609375</v>
       </c>
       <c r="J12" t="n">
-        <v>101.2733612060547</v>
+        <v>75.42577362060547</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>587.619140625</v>
+        <v>577.3672485351562</v>
       </c>
       <c r="H13" t="n">
-        <v>193.0767822265625</v>
+        <v>172.0395355224609</v>
       </c>
       <c r="I13" t="n">
-        <v>886.661376953125</v>
+        <v>894.141845703125</v>
       </c>
       <c r="J13" t="n">
-        <v>113.6161117553711</v>
+        <v>78.95829010009766</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>122.664909362793</v>
+        <v>123.4090347290039</v>
       </c>
       <c r="H14" t="n">
-        <v>47.0305061340332</v>
+        <v>43.86415863037109</v>
       </c>
       <c r="I14" t="n">
-        <v>676.558837890625</v>
+        <v>726.7713623046875</v>
       </c>
       <c r="J14" t="n">
-        <v>102.6264724731445</v>
+        <v>111.1801605224609</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>132.3987579345703</v>
+        <v>128.8991394042969</v>
       </c>
       <c r="H15" t="n">
-        <v>44.34247970581055</v>
+        <v>41.21804428100586</v>
       </c>
       <c r="I15" t="n">
-        <v>886.4566650390625</v>
+        <v>960.2789306640625</v>
       </c>
       <c r="J15" t="n">
-        <v>92.510009765625</v>
+        <v>82.37473297119141</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>151.5925750732422</v>
+        <v>141.0469970703125</v>
       </c>
       <c r="H16" t="n">
-        <v>40.52036666870117</v>
+        <v>38.47610855102539</v>
       </c>
       <c r="I16" t="n">
-        <v>993.8421020507812</v>
+        <v>963.6537475585938</v>
       </c>
       <c r="J16" t="n">
-        <v>89.22843933105469</v>
+        <v>85.33243560791016</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>154.4678039550781</v>
+        <v>149.8783111572266</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18212127685547</v>
+        <v>37.42777633666992</v>
       </c>
       <c r="I17" t="n">
-        <v>1021.2216796875</v>
+        <v>985.8056030273438</v>
       </c>
       <c r="J17" t="n">
-        <v>90.37996673583984</v>
+        <v>81.39221954345703</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>172.0110931396484</v>
+        <v>176.14697265625</v>
       </c>
       <c r="H18" t="n">
-        <v>38.33388900756836</v>
+        <v>38.90986633300781</v>
       </c>
       <c r="I18" t="n">
-        <v>1007.297058105469</v>
+        <v>952.2838745117188</v>
       </c>
       <c r="J18" t="n">
-        <v>91.99343872070312</v>
+        <v>77.51222991943359</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>211.9674224853516</v>
+        <v>229.2755279541016</v>
       </c>
       <c r="H19" t="n">
-        <v>41.18066787719727</v>
+        <v>49.24518203735352</v>
       </c>
       <c r="I19" t="n">
-        <v>973.3171997070312</v>
+        <v>930.700927734375</v>
       </c>
       <c r="J19" t="n">
-        <v>96.84957122802734</v>
+        <v>82.93386840820312</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>276.3738403320312</v>
+        <v>326.8229370117188</v>
       </c>
       <c r="H20" t="n">
-        <v>72.03376007080078</v>
+        <v>97.33214569091797</v>
       </c>
       <c r="I20" t="n">
-        <v>930.59521484375</v>
+        <v>921.844970703125</v>
       </c>
       <c r="J20" t="n">
-        <v>105.7158966064453</v>
+        <v>81.37152862548828</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>506.6355285644531</v>
+        <v>525.83740234375</v>
       </c>
       <c r="H21" t="n">
-        <v>178.4089660644531</v>
+        <v>168.5395965576172</v>
       </c>
       <c r="I21" t="n">
-        <v>910.6830444335938</v>
+        <v>918.5369873046875</v>
       </c>
       <c r="J21" t="n">
-        <v>119.4060592651367</v>
+        <v>80.7548828125</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>781.6328735351562</v>
+        <v>724.846435546875</v>
       </c>
       <c r="H22" t="n">
-        <v>130.0431060791016</v>
+        <v>102.2126388549805</v>
       </c>
       <c r="I22" t="n">
-        <v>889.2625122070312</v>
+        <v>904.0474853515625</v>
       </c>
       <c r="J22" t="n">
-        <v>126.5465850830078</v>
+        <v>87.79471588134766</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>118.620964050293</v>
+        <v>120.5462341308594</v>
       </c>
       <c r="H23" t="n">
-        <v>49.48999786376953</v>
+        <v>43.96300888061523</v>
       </c>
       <c r="I23" t="n">
-        <v>409.2932739257812</v>
+        <v>339.968017578125</v>
       </c>
       <c r="J23" t="n">
-        <v>104.7174911499023</v>
+        <v>122.4724884033203</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>123.8697280883789</v>
+        <v>125.069465637207</v>
       </c>
       <c r="H24" t="n">
-        <v>46.03369140625</v>
+        <v>41.1882209777832</v>
       </c>
       <c r="I24" t="n">
-        <v>575.975341796875</v>
+        <v>560.9884643554688</v>
       </c>
       <c r="J24" t="n">
-        <v>117.9599761962891</v>
+        <v>155.8781585693359</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>135.3764953613281</v>
+        <v>133.6169586181641</v>
       </c>
       <c r="H25" t="n">
-        <v>44.73389053344727</v>
+        <v>41.12028121948242</v>
       </c>
       <c r="I25" t="n">
-        <v>811.17724609375</v>
+        <v>889.9266967773438</v>
       </c>
       <c r="J25" t="n">
-        <v>113.7390747070312</v>
+        <v>108.7592926025391</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>146.7358703613281</v>
+        <v>140.9723510742188</v>
       </c>
       <c r="H26" t="n">
-        <v>45.05088424682617</v>
+        <v>39.74634552001953</v>
       </c>
       <c r="I26" t="n">
-        <v>955.1145629882812</v>
+        <v>1004.773742675781</v>
       </c>
       <c r="J26" t="n">
-        <v>107.7332305908203</v>
+        <v>88.05115509033203</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>162.4633636474609</v>
+        <v>163.4507598876953</v>
       </c>
       <c r="H27" t="n">
-        <v>42.22451782226562</v>
+        <v>39.29858016967773</v>
       </c>
       <c r="I27" t="n">
-        <v>1010.157897949219</v>
+        <v>998.2376098632812</v>
       </c>
       <c r="J27" t="n">
-        <v>105.8757781982422</v>
+        <v>88.46196746826172</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>189.9073486328125</v>
+        <v>209.4318084716797</v>
       </c>
       <c r="H28" t="n">
-        <v>38.60477447509766</v>
+        <v>41.40517807006836</v>
       </c>
       <c r="I28" t="n">
-        <v>1012.073547363281</v>
+        <v>966.7494506835938</v>
       </c>
       <c r="J28" t="n">
-        <v>106.5875549316406</v>
+        <v>94.47882843017578</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>238.1077117919922</v>
+        <v>279.5523681640625</v>
       </c>
       <c r="H29" t="n">
-        <v>52.81459045410156</v>
+        <v>69.09706878662109</v>
       </c>
       <c r="I29" t="n">
-        <v>976.0576171875</v>
+        <v>947.1488647460938</v>
       </c>
       <c r="J29" t="n">
-        <v>118.9915466308594</v>
+        <v>93.22490692138672</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>426.1932983398438</v>
+        <v>468.3628540039062</v>
       </c>
       <c r="H30" t="n">
-        <v>119.4075393676758</v>
+        <v>148.8344879150391</v>
       </c>
       <c r="I30" t="n">
-        <v>906.596435546875</v>
+        <v>925.563720703125</v>
       </c>
       <c r="J30" t="n">
-        <v>136.5056457519531</v>
+        <v>99.07072448730469</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>739.0083618164062</v>
+        <v>698.582763671875</v>
       </c>
       <c r="H31" t="n">
-        <v>118.9990386962891</v>
+        <v>90.90977478027344</v>
       </c>
       <c r="I31" t="n">
-        <v>860.1898193359375</v>
+        <v>902.7029418945312</v>
       </c>
       <c r="J31" t="n">
-        <v>156.9241943359375</v>
+        <v>99.83690643310547</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>113.6512603759766</v>
+        <v>120.603759765625</v>
       </c>
       <c r="H32" t="n">
-        <v>50.97983169555664</v>
+        <v>44.13317108154297</v>
       </c>
       <c r="I32" t="n">
-        <v>200.0419006347656</v>
+        <v>165.1065826416016</v>
       </c>
       <c r="J32" t="n">
-        <v>88.35585021972656</v>
+        <v>67.88888549804688</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>122.65625</v>
+        <v>125.547607421875</v>
       </c>
       <c r="H33" t="n">
-        <v>48.23756790161133</v>
+        <v>43.43647766113281</v>
       </c>
       <c r="I33" t="n">
-        <v>320.1502380371094</v>
+        <v>262.1096801757812</v>
       </c>
       <c r="J33" t="n">
-        <v>105.2387084960938</v>
+        <v>108.6764755249023</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>134.1070556640625</v>
+        <v>132.2191467285156</v>
       </c>
       <c r="H34" t="n">
-        <v>46.72828674316406</v>
+        <v>40.56885528564453</v>
       </c>
       <c r="I34" t="n">
-        <v>464.3421936035156</v>
+        <v>423.0386962890625</v>
       </c>
       <c r="J34" t="n">
-        <v>124.3451309204102</v>
+        <v>150.3951721191406</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>143.8948822021484</v>
+        <v>143.6170043945312</v>
       </c>
       <c r="H35" t="n">
-        <v>43.95347213745117</v>
+        <v>40.09877777099609</v>
       </c>
       <c r="I35" t="n">
-        <v>584.1795654296875</v>
+        <v>569.2495727539062</v>
       </c>
       <c r="J35" t="n">
-        <v>127.3674392700195</v>
+        <v>153.0261077880859</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>165.0059051513672</v>
+        <v>166.6942901611328</v>
       </c>
       <c r="H36" t="n">
-        <v>43.85565948486328</v>
+        <v>38.9371452331543</v>
       </c>
       <c r="I36" t="n">
-        <v>784.4095458984375</v>
+        <v>802.8717041015625</v>
       </c>
       <c r="J36" t="n">
-        <v>132.7679138183594</v>
+        <v>117.1660079956055</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>189.2853240966797</v>
+        <v>196.2999572753906</v>
       </c>
       <c r="H37" t="n">
-        <v>46.35953903198242</v>
+        <v>38.19387817382812</v>
       </c>
       <c r="I37" t="n">
-        <v>848.8936157226562</v>
+        <v>851.2872924804688</v>
       </c>
       <c r="J37" t="n">
-        <v>133.9177856445312</v>
+        <v>108.5049057006836</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>254.600830078125</v>
+        <v>266.1693725585938</v>
       </c>
       <c r="H38" t="n">
-        <v>53.63743591308594</v>
+        <v>55.85538864135742</v>
       </c>
       <c r="I38" t="n">
-        <v>909.6858520507812</v>
+        <v>880.5537719726562</v>
       </c>
       <c r="J38" t="n">
-        <v>138.7332916259766</v>
+        <v>109.3863220214844</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>405.4685974121094</v>
+        <v>406.753173828125</v>
       </c>
       <c r="H39" t="n">
-        <v>85.42317199707031</v>
+        <v>113.5404815673828</v>
       </c>
       <c r="I39" t="n">
-        <v>864.1477661132812</v>
+        <v>883.8158569335938</v>
       </c>
       <c r="J39" t="n">
-        <v>159.7002868652344</v>
+        <v>111.2651901245117</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>660.7183837890625</v>
+        <v>655.5346069335938</v>
       </c>
       <c r="H40" t="n">
-        <v>91.50175476074219</v>
+        <v>85.27936553955078</v>
       </c>
       <c r="I40" t="n">
-        <v>778.8413696289062</v>
+        <v>859.5507202148438</v>
       </c>
       <c r="J40" t="n">
-        <v>211.5841217041016</v>
+        <v>128.1301422119141</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>113.2898864746094</v>
+        <v>122.0645294189453</v>
       </c>
       <c r="H41" t="n">
-        <v>49.51224136352539</v>
+        <v>44.96393585205078</v>
       </c>
       <c r="I41" t="n">
-        <v>117.9298553466797</v>
+        <v>126.2746353149414</v>
       </c>
       <c r="J41" t="n">
-        <v>73.4830322265625</v>
+        <v>53.96976852416992</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>122.2385177612305</v>
+        <v>126.9388046264648</v>
       </c>
       <c r="H42" t="n">
-        <v>48.69250106811523</v>
+        <v>45.03889083862305</v>
       </c>
       <c r="I42" t="n">
-        <v>161.9511108398438</v>
+        <v>155.5136566162109</v>
       </c>
       <c r="J42" t="n">
-        <v>83.6151123046875</v>
+        <v>62.30125427246094</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>130.9742279052734</v>
+        <v>134.4539184570312</v>
       </c>
       <c r="H43" t="n">
-        <v>47.76642990112305</v>
+        <v>44.37791442871094</v>
       </c>
       <c r="I43" t="n">
-        <v>198.3366394042969</v>
+        <v>184.5857391357422</v>
       </c>
       <c r="J43" t="n">
-        <v>94.65204620361328</v>
+        <v>75.99802398681641</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>142.1339263916016</v>
+        <v>145.1817779541016</v>
       </c>
       <c r="H44" t="n">
-        <v>44.68782043457031</v>
+        <v>41.75724411010742</v>
       </c>
       <c r="I44" t="n">
-        <v>318.3721008300781</v>
+        <v>283.0125122070312</v>
       </c>
       <c r="J44" t="n">
-        <v>116.3242950439453</v>
+        <v>114.1251220703125</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>156.698974609375</v>
+        <v>157.5737152099609</v>
       </c>
       <c r="H45" t="n">
-        <v>46.09856033325195</v>
+        <v>40.89403533935547</v>
       </c>
       <c r="I45" t="n">
-        <v>370.0499877929688</v>
+        <v>345.982421875</v>
       </c>
       <c r="J45" t="n">
-        <v>118.8524398803711</v>
+        <v>119.0482482910156</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>188.2675628662109</v>
+        <v>186.3472595214844</v>
       </c>
       <c r="H46" t="n">
-        <v>46.18820190429688</v>
+        <v>37.81184387207031</v>
       </c>
       <c r="I46" t="n">
-        <v>482.7691650390625</v>
+        <v>460.6955261230469</v>
       </c>
       <c r="J46" t="n">
-        <v>128.0650177001953</v>
+        <v>123.4463806152344</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>256.812744140625</v>
+        <v>252.096923828125</v>
       </c>
       <c r="H47" t="n">
-        <v>55.17692947387695</v>
+        <v>48.59428024291992</v>
       </c>
       <c r="I47" t="n">
-        <v>586.8005981445312</v>
+        <v>585.3286743164062</v>
       </c>
       <c r="J47" t="n">
-        <v>153.0557708740234</v>
+        <v>141.6903991699219</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>418.4746398925781</v>
+        <v>401.052978515625</v>
       </c>
       <c r="H48" t="n">
-        <v>80.02487182617188</v>
+        <v>99.13751983642578</v>
       </c>
       <c r="I48" t="n">
-        <v>688.3438720703125</v>
+        <v>746.5084228515625</v>
       </c>
       <c r="J48" t="n">
-        <v>207.3404693603516</v>
+        <v>154.5243682861328</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>599.7059326171875</v>
+        <v>597.919921875</v>
       </c>
       <c r="H49" t="n">
-        <v>87.90394592285156</v>
+        <v>95.95995330810547</v>
       </c>
       <c r="I49" t="n">
-        <v>684.444091796875</v>
+        <v>792.2503051757812</v>
       </c>
       <c r="J49" t="n">
-        <v>256.2554626464844</v>
+        <v>168.2968139648438</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>115.5886993408203</v>
+        <v>125.0267944335938</v>
       </c>
       <c r="H50" t="n">
-        <v>51.75943756103516</v>
+        <v>45.45986175537109</v>
       </c>
       <c r="I50" t="n">
-        <v>51.04134368896484</v>
+        <v>86.72735595703125</v>
       </c>
       <c r="J50" t="n">
-        <v>70.27357482910156</v>
+        <v>53.82730484008789</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>124.6962203979492</v>
+        <v>134.1069793701172</v>
       </c>
       <c r="H51" t="n">
-        <v>48.81538009643555</v>
+        <v>44.71808242797852</v>
       </c>
       <c r="I51" t="n">
-        <v>69.72863006591797</v>
+        <v>100.3096542358398</v>
       </c>
       <c r="J51" t="n">
-        <v>77.81658935546875</v>
+        <v>54.15654373168945</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>135.4696044921875</v>
+        <v>141.2166900634766</v>
       </c>
       <c r="H52" t="n">
-        <v>48.27679443359375</v>
+        <v>46.33671951293945</v>
       </c>
       <c r="I52" t="n">
-        <v>77.16285705566406</v>
+        <v>104.818115234375</v>
       </c>
       <c r="J52" t="n">
-        <v>81.45899963378906</v>
+        <v>56.46017837524414</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>145.6720428466797</v>
+        <v>153.6750183105469</v>
       </c>
       <c r="H53" t="n">
-        <v>46.44927215576172</v>
+        <v>43.55047607421875</v>
       </c>
       <c r="I53" t="n">
-        <v>106.0032348632812</v>
+        <v>127.8178634643555</v>
       </c>
       <c r="J53" t="n">
-        <v>84.46063995361328</v>
+        <v>66.42152404785156</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>160.9845733642578</v>
+        <v>167.0251159667969</v>
       </c>
       <c r="H54" t="n">
-        <v>45.64583969116211</v>
+        <v>40.5416259765625</v>
       </c>
       <c r="I54" t="n">
-        <v>139.2640686035156</v>
+        <v>158.6583404541016</v>
       </c>
       <c r="J54" t="n">
-        <v>92.46110534667969</v>
+        <v>70.84864044189453</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>185.306884765625</v>
+        <v>189.0098114013672</v>
       </c>
       <c r="H55" t="n">
-        <v>46.44184112548828</v>
+        <v>38.54413986206055</v>
       </c>
       <c r="I55" t="n">
-        <v>197.7325592041016</v>
+        <v>203.1195068359375</v>
       </c>
       <c r="J55" t="n">
-        <v>96.42997741699219</v>
+        <v>79.89909362792969</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>248.8174438476562</v>
+        <v>237.7712707519531</v>
       </c>
       <c r="H56" t="n">
-        <v>58.29224014282227</v>
+        <v>48.16641616821289</v>
       </c>
       <c r="I56" t="n">
-        <v>231.7685699462891</v>
+        <v>232.3323974609375</v>
       </c>
       <c r="J56" t="n">
-        <v>114.3567428588867</v>
+        <v>98.41976165771484</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>375.0258483886719</v>
+        <v>359.7403564453125</v>
       </c>
       <c r="H57" t="n">
-        <v>78.89691162109375</v>
+        <v>89.82029724121094</v>
       </c>
       <c r="I57" t="n">
-        <v>373.1403503417969</v>
+        <v>391.2925109863281</v>
       </c>
       <c r="J57" t="n">
-        <v>175.1763458251953</v>
+        <v>174.2274932861328</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>583.1212768554688</v>
+        <v>586.4003295898438</v>
       </c>
       <c r="H58" t="n">
-        <v>85.58650207519531</v>
+        <v>95.52056884765625</v>
       </c>
       <c r="I58" t="n">
-        <v>482.1059875488281</v>
+        <v>577.3900756835938</v>
       </c>
       <c r="J58" t="n">
-        <v>286.7404174804688</v>
+        <v>223.7266998291016</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>133.5058898925781</v>
+        <v>141.2118377685547</v>
       </c>
       <c r="H59" t="n">
-        <v>50.12801361083984</v>
+        <v>46.16267013549805</v>
       </c>
       <c r="I59" t="n">
-        <v>-12.73628616333008</v>
+        <v>33.61089324951172</v>
       </c>
       <c r="J59" t="n">
-        <v>78.22498321533203</v>
+        <v>72.82666778564453</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>141.0119476318359</v>
+        <v>154.9689788818359</v>
       </c>
       <c r="H60" t="n">
-        <v>49.69658660888672</v>
+        <v>45.56288528442383</v>
       </c>
       <c r="I60" t="n">
-        <v>-11.57717990875244</v>
+        <v>37.03487396240234</v>
       </c>
       <c r="J60" t="n">
-        <v>81.77060699462891</v>
+        <v>75.10449981689453</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>149.7259216308594</v>
+        <v>164.2432556152344</v>
       </c>
       <c r="H61" t="n">
-        <v>47.85365295410156</v>
+        <v>47.59722900390625</v>
       </c>
       <c r="I61" t="n">
-        <v>2.649434089660645</v>
+        <v>46.0610237121582</v>
       </c>
       <c r="J61" t="n">
-        <v>83.42018127441406</v>
+        <v>76.04558563232422</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>162.7439575195312</v>
+        <v>174.1548004150391</v>
       </c>
       <c r="H62" t="n">
-        <v>49.18801116943359</v>
+        <v>42.80332565307617</v>
       </c>
       <c r="I62" t="n">
-        <v>20.77480125427246</v>
+        <v>55.86521530151367</v>
       </c>
       <c r="J62" t="n">
-        <v>81.63697814941406</v>
+        <v>75.42545318603516</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>182.7822418212891</v>
+        <v>186.0887298583984</v>
       </c>
       <c r="H63" t="n">
-        <v>48.48907852172852</v>
+        <v>39.33833694458008</v>
       </c>
       <c r="I63" t="n">
-        <v>55.13544845581055</v>
+        <v>81.68037414550781</v>
       </c>
       <c r="J63" t="n">
-        <v>84.09867858886719</v>
+        <v>73.47503662109375</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>239.5101013183594</v>
+        <v>232.681640625</v>
       </c>
       <c r="H64" t="n">
-        <v>55.34746932983398</v>
+        <v>46.55168533325195</v>
       </c>
       <c r="I64" t="n">
-        <v>82.40301513671875</v>
+        <v>102.218505859375</v>
       </c>
       <c r="J64" t="n">
-        <v>88.91620635986328</v>
+        <v>87.56728363037109</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>380.6460266113281</v>
+        <v>367.2406311035156</v>
       </c>
       <c r="H65" t="n">
-        <v>82.67195892333984</v>
+        <v>93.27011871337891</v>
       </c>
       <c r="I65" t="n">
-        <v>162.2604217529297</v>
+        <v>193.3267517089844</v>
       </c>
       <c r="J65" t="n">
-        <v>142.8419952392578</v>
+        <v>141.1513214111328</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>152.9140930175781</v>
+        <v>168.9120788574219</v>
       </c>
       <c r="H66" t="n">
-        <v>52.87222671508789</v>
+        <v>51.84033966064453</v>
       </c>
       <c r="I66" t="n">
-        <v>-83.86845397949219</v>
+        <v>-43.83901977539062</v>
       </c>
       <c r="J66" t="n">
-        <v>89.88163757324219</v>
+        <v>105.0835571289062</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>158.3434448242188</v>
+        <v>178.6591796875</v>
       </c>
       <c r="H67" t="n">
-        <v>53.27412414550781</v>
+        <v>52.0620231628418</v>
       </c>
       <c r="I67" t="n">
-        <v>-82.13919830322266</v>
+        <v>-41.90355682373047</v>
       </c>
       <c r="J67" t="n">
-        <v>91.85931396484375</v>
+        <v>108.2842864990234</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>173.707763671875</v>
+        <v>190.9062957763672</v>
       </c>
       <c r="H68" t="n">
-        <v>49.99541854858398</v>
+        <v>46.51233673095703</v>
       </c>
       <c r="I68" t="n">
-        <v>-51.50262451171875</v>
+        <v>-13.37346458435059</v>
       </c>
       <c r="J68" t="n">
-        <v>91.70745086669922</v>
+        <v>101.5297622680664</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>187.6241607666016</v>
+        <v>198.9214324951172</v>
       </c>
       <c r="H69" t="n">
-        <v>49.39407730102539</v>
+        <v>44.11718368530273</v>
       </c>
       <c r="I69" t="n">
-        <v>-34.67528533935547</v>
+        <v>2.691504001617432</v>
       </c>
       <c r="J69" t="n">
-        <v>91.0230712890625</v>
+        <v>97.71493530273438</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>237.6568298339844</v>
+        <v>232.3291473388672</v>
       </c>
       <c r="H70" t="n">
-        <v>58.07891082763672</v>
+        <v>49.53190231323242</v>
       </c>
       <c r="I70" t="n">
-        <v>16.63431739807129</v>
+        <v>40.04177093505859</v>
       </c>
       <c r="J70" t="n">
-        <v>88.25111389160156</v>
+        <v>103.6250076293945</v>
       </c>
     </row>
   </sheetData>
